--- a/data/trans_dic/P42_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P42_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en ERTE o cese de actividad</t>
+          <t>Población que se encuentra en ERTE o cese de actividad (tasa de respuesta: 99,85%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,12 +681,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -676,42 +701,57 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>3,9%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,99; 41,52</t>
+          <t>0,0; 15,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,52</t>
+          <t>0,0; 14,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,72; 48,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 30,13</t>
+          <t>0,35; 15,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,86</t>
+          <t>0,0; 11,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,51</t>
+          <t>0,0; 11,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,47; 37,05</t>
+          <t>0,0; 10,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,86; 21,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,57</t>
+          <t>1,86; 11,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,01</t>
+          <t>1,03; 9,13</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,76</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,16</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>4,98%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1,36%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,71; 28,99</t>
+          <t>4,16; 12,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,72; 14,31</t>
+          <t>3,12; 11,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 7,67</t>
+          <t>0,53; 5,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 11,61</t>
+          <t>0,47; 5,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,19; 31,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,22; 18,6</t>
+          <t>3,62; 10,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,48</t>
+          <t>1,69; 7,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 9,02</t>
+          <t>0,0; 2,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,34; 26,86</t>
+          <t>0,0; 4,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,37; 13,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,93</t>
+          <t>4,63; 10,15</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 8,62</t>
+          <t>3,17; 7,86</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 2,99</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 3,32</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,12 +1021,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -956,42 +1041,57 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>3,63%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,26%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 15,01</t>
+          <t>2,57; 12,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 7,23</t>
+          <t>0,68; 6,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,96; 17,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 12,62</t>
+          <t>3,96; 13,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 8,04</t>
+          <t>1,81; 10,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 8,13</t>
+          <t>0,57; 5,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,23; 14,42</t>
+          <t>0,59; 5,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 8,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,3</t>
+          <t>4,46; 11,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 4,19</t>
+          <t>1,73; 7,28</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 2,95</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 2,96</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,23; 19,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,75; 9,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 6,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,53; 21,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 12,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 5,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,31; 19,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,43; 9,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,02%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,56%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,03%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6,74%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4,07%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,91%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6,87%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,39%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,48%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,31; 10,36</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,7; 7,36</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 2,7</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 2,53</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4,48; 10,0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2,41; 7,18</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 3,29</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 3,52</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5,19; 8,76</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 6,01</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 2,47</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 2,65</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra en ERTE o cese de actividad (tasa de respuesta: 99,85%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4889</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5677</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6631</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4914</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4037</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3715</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>11520</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10592</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4037</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3715</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16394</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18983</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>417; 18231</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16344</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13193</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12575</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4121; 25554</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2790; 24780</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14944</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14577</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>28767</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>26761</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8510</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8113</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>24497</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>17538</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1812</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4196</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>53265</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>44300</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>10322</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>12309</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>15139; 46739</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>13349; 47406</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1977; 21267</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1891; 20150</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>14083; 41383</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7839; 34602</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9123</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15126</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>34838; 76448</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>28219; 69927</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>3635; 22630</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>4608; 25728</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19082</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7961</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>27111</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>19517</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7908</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>7838</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>46193</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>27479</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>7908</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>7838</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7295; 35598</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2250; 21824</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>14171; 47884</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7708; 44526</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1978; 19089</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1927; 18938</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>28585; 71659</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13053; 55070</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2018; 18525</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2029; 17862</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>52738</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>40400</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>8510</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>8113</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>58240</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>41970</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>13756</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>15749</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>110978</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>82370</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>22267</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>23862</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>32390; 77823</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>23930; 65281</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2652; 20665</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2306; 19974</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>38738; 86454</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>24837; 74057</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5844; 27712</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>7254; 29031</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>83782; 141467</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>55144; 115169</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>11600; 39672</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>13164; 42763</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
